--- a/QHKH/BIEUMAUEXCEL/BM01CT.xlsx
+++ b/QHKH/BIEUMAUEXCEL/BM01CT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QHKH\QHKH\BIEUMAUEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47C3B7C-4CC0-4BC4-9D70-ED9729490F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EB765D-F8A3-4A90-9041-FE37B4309F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -277,14 +277,17 @@
     <t>CSD</t>
   </si>
   <si>
-    <t>HIỆN TRẠNG SỬ DỤNG ĐẤT NĂM 20... CỦA TỈNH (THÀNH PHỐ) ...</t>
+    <t>HIỆN TRẠNG SỬ DỤNG ĐẤT NĂM 20... CỦA TỈNH (THÀNH PHỐ) …</t>
+  </si>
+  <si>
+    <t>BM01/CT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +346,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -393,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -435,6 +446,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,7 +768,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,6 +780,7 @@
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -785,7 +800,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -793,7 +808,9 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="M2" s="16" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
